--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>

--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -540,7 +540,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">custom </t>
+          <t>custom</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -841,7 +841,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">custom </t>
+          <t>custom</t>
         </is>
       </c>
       <c r="G7" t="n">

--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,36 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Days/Month.1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Zonal/Regional</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Balanced SSD</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Error</t>
         </is>
       </c>
@@ -530,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -540,14 +570,14 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>custom</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -556,11 +586,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>asia-south1</t>
+          <t>asia-southeast1</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -568,14 +598,28 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>730</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -583,7 +627,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -597,294 +641,48 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>STANDARD</t>
+          <t>custom</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>Non-HA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>asia-southeast1</t>
+          <t>us-central1</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>600</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Enterprise</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>lightweight</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Non-HA</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>asia-southeast1</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>HDD</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>350</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Enterprise</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>f1-micro</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>HA</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>asia-south1</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>HDD</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>730</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Enterprise</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>STANDARD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Non-HA</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>asia-southeast1</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>HDD</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>730</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Enterprise</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>custom</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>52</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Non-HA</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>asia-south2</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>HDD</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud SQL </t>
+          <t>Cloud SQL Edition</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -516,35 +516,125 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Days/Month.1</t>
+          <t>Unnamed: 16</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Zonal/Regional</t>
+          <t>Unnamed: 17</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>Unnamed: 18</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>Unnamed: 19</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Balanced SSD</t>
+          <t>Unnamed: 20</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Snapshot</t>
+          <t>Unnamed: 21</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 24</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 25</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 26</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 27</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 28</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 29</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 30</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 31</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 32</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 33</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 34</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 35</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 36</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 37</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 38</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 39</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
@@ -560,7 +650,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -570,14 +660,14 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>custom</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>26</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -586,11 +676,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>asia-southeast1</t>
+          <t>asia-south1</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -598,21 +688,13 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>500</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -620,6 +702,24 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,7 +727,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -641,41 +741,49 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>custom</t>
+          <t>STANDARD</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Non-HA</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>us-central1</t>
+          <t>asia-southeast1</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>730</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -683,6 +791,372 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Enterprise</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lightweight</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Non-HA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>asia-southeast1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>350</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PostgreSQL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Enterprise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f1-micro</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>asia-south1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>730</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Storage amount cannot be less than 10.74; RAM cannot be less than 3.75 or greater then 624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PostgreSQL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Enterprise</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>STANDARD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Non-HA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>asia-southeast1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>730</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Storage amount cannot be less than 10.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PostgreSQL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Enterprise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>custom</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>52</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Non-HA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>asia-south2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
